--- a/data/590_D_features_case.xlsx
+++ b/data/590_D_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6350,6 +6350,5774 @@
         <v>0.9859399999999999</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.001159025805364</v>
+      </c>
+      <c r="B106" t="n">
+        <v>70.34343775416504</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.205084457150362e-05</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.3489773433069096</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8.03355757063046e-07</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.0001156350187875453</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-5.643050855989876e-07</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0004547180809826443</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.00844810805148007</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-3.225417959494775e-05</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-0.0001099910919306025</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.002475672496546916</v>
+      </c>
+      <c r="M106" t="n">
+        <v>9.488506759805903e-07</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-5.943076548988213e-05</v>
+      </c>
+      <c r="O106" t="n">
+        <v>-0.0002704036770193362</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.0005347289551117445</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>7765.208065047849</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.001153337831001</v>
+      </c>
+      <c r="B107" t="n">
+        <v>70.32567590562394</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.046870860966026e-05</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.3372477548546691</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8.03080096300084e-07</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.0002423627471318874</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.058119775153288e-07</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0004521860427616828</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.01733399236918573</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.16523334772962e-05</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.0001100299979973273</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.002426565525383707</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-3.893495542607935e-05</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-4.784420516790166e-05</v>
+      </c>
+      <c r="O107" t="n">
+        <v>-0.000264186053296355</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.0005376721700464185</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>7763.975713064221</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1.0141</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.001148717490302</v>
+      </c>
+      <c r="B108" t="n">
+        <v>70.29609415115908</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.1453835227655e-05</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.3281905583965818</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8.925978457368191e-07</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.0003870428995854546</v>
+      </c>
+      <c r="G108" t="n">
+        <v>7.381535311064216e-08</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0004509760673702366</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.02747114820495967</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.062142080372168e-05</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.000323058772138438</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.002595512787761024</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-6.934557223613273e-05</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-3.703545945700024e-05</v>
+      </c>
+      <c r="O108" t="n">
+        <v>-0.0002038604412405841</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.0005497648670333897</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>7761.943941788822</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1.0281</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.0011453418789</v>
+      </c>
+      <c r="B109" t="n">
+        <v>70.25568606285489</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.058387074717488e-05</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.3223979265568486</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8.131971412684634e-07</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.0005427048166241888</v>
+      </c>
+      <c r="G109" t="n">
+        <v>7.224554783606058e-08</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0004206523685140421</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.03842500000168746</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7.617981595359854e-06</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.000530503037714293</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.002397712769283072</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-8.734436003186971e-05</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-2.833523691542249e-05</v>
+      </c>
+      <c r="O109" t="n">
+        <v>-0.0001619776079625719</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.0005474258286070974</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>7759.181148925662</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.0422</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.001138600775848</v>
+      </c>
+      <c r="B110" t="n">
+        <v>70.20495410505799</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.816198642499163e-05</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.3187799560652911</v>
+      </c>
+      <c r="E110" t="n">
+        <v>8.23597072960297e-07</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.0007127949765897029</v>
+      </c>
+      <c r="G110" t="n">
+        <v>8.81213584470236e-08</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0004107357695360507</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.05036548423098082</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.384130828095686e-06</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.0007398760607137865</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.002428009416350143</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-9.016523371354398e-05</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-1.971789224082757e-05</v>
+      </c>
+      <c r="O110" t="n">
+        <v>-5.409833856234568e-05</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.0005601422452220348</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>7755.753241354548</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1.0562</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.001126710069152</v>
+      </c>
+      <c r="B111" t="n">
+        <v>70.14365195554805</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.769827144993444e-05</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-0.3158733159038437</v>
+      </c>
+      <c r="E111" t="n">
+        <v>8.247876849242032e-07</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.000888932293020948</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1.399492405363468e-07</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0003902229569578426</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.06268822365217087</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-2.427920740465887e-05</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0009585903973631343</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.002413230420890163</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-8.474042946322597e-05</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-1.119290773641086e-05</v>
+      </c>
+      <c r="O111" t="n">
+        <v>9.127653491603907e-05</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.000560616914212912</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>7751.64983233174</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.0702</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.001108436835892</v>
+      </c>
+      <c r="B112" t="n">
+        <v>70.0712279192669</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.306843753303068e-05</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-0.313313840028444</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9.075532385558173e-07</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.001059639040956312</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-3.98873647089898e-07</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0003911479695685631</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.07464970205689356</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-5.266044872870885e-05</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.001174707155188925</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.00261824857839855</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-7.476955535679654e-05</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-5.593191739577592e-06</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.0002500947163267124</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.0005805154547638599</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>7746.836250725371</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.0842</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.001092505987519</v>
+      </c>
+      <c r="B113" t="n">
+        <v>69.98834913138809</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.756206546792363e-06</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-0.3113680993988419</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8.367593035758411e-07</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.001215414612419369</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-4.735491426007794e-07</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0003712499426298082</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.0854677339806803</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-6.783816992047755e-05</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.001371800364905815</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.002407846967451659</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-7.487864399744006e-05</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-3.155311586465772e-06</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.0004205569056038042</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.0005884650916278021</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>7741.311669817016</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1.0982</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.001072746162928</v>
+      </c>
+      <c r="B114" t="n">
+        <v>69.89496984689191</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.312744380907392e-05</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-0.3098119043286062</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8.605998545323528e-07</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.001362563192468558</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-6.663069953921419e-07</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0003739130813840033</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.09567967480831545</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-8.80521819610952e-05</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.001556860093069406</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.002427436743372237</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-8.753338888535999e-05</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-1.936648616131628e-06</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.000562926362259669</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.0006164347004165851</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>7735.109253051549</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.1121</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.001054017878226</v>
+      </c>
+      <c r="B115" t="n">
+        <v>69.79156451340867</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.031162074174076e-05</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.3083297952488634</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9.097179233591498e-07</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.001508081601163562</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-4.225059018559624e-07</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0003619333720369933</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.1057421054347115</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-7.419519689548542e-05</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.00173507631227863</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.002391635561824891</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-0.0001089895373364217</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-5.146190299211032e-06</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.0006635162106966136</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.0006278512753121524</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>7728.252130689489</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.1261</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.001032497217069</v>
+      </c>
+      <c r="B116" t="n">
+        <v>69.67930053784599</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.01766873178906e-05</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.3071267186816756</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.028849191692663e-06</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.001657011405516408</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.099394938167933e-08</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0003714484556560168</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.1159898611847433</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-4.442160608322754e-05</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.001908484244971034</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.002601278892246435</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-0.0001344213263278099</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-1.46840617676822e-05</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.0007543072040247293</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.00065395034408698</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>7720.835840925944</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.001011910271546</v>
+      </c>
+      <c r="B117" t="n">
+        <v>69.56032877944565</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.273781135510986e-05</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.3061611285336931</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.655424981200001e-07</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.001800557044785833</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.477304873502469e-07</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0003626388388166639</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.1256423051121568</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-1.807810921339531e-05</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.002077736431809749</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.002358401752060868</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-0.0001602211501490515</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-3.194941359003316e-05</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.0008781438590858378</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.0006613036608379644</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>7712.985675961192</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.1538</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.00098827255861</v>
+      </c>
+      <c r="B118" t="n">
+        <v>69.43316695714098</v>
+      </c>
+      <c r="C118" t="n">
+        <v>8.028539648807842e-06</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.3045626309558632</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.934572229306594e-07</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.001920484502951594</v>
+      </c>
+      <c r="G118" t="n">
+        <v>8.043970962755328e-07</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0003829310639428206</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.1336607092145949</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-1.506840804229294e-05</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.002240277770881355</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.002371948487502963</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-0.000180009548328543</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-5.101044436352326e-05</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.0009594635085213454</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.000686054674271675</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>7704.6157080119</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.1676</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.000957381683252</v>
+      </c>
+      <c r="B119" t="n">
+        <v>69.29763812522255</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4.230051297388634e-06</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.3009248486512659</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.041233813100422e-06</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.002035906305886322</v>
+      </c>
+      <c r="G119" t="n">
+        <v>6.097437319723368e-07</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0003840938268887876</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.1414109403384494</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-4.629270834036084e-05</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.002400992155994078</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.00232236808261142</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.0001908812120041318</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-6.460065308744214e-05</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.0009961906982721089</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0.0006889052425019666</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>7695.724297304727</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.1814</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.00092705987519</v>
+      </c>
+      <c r="B120" t="n">
+        <v>69.15430542905868</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4.901085158092473e-06</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.2951962303163772</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.171015202980604e-06</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.002164220064564007</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2.152730355158027e-07</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.0003993978183122804</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.1501445596109518</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-8.786506970128013e-05</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.002552160329716459</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.002605478705594998</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-0.0001962870289158505</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-7.039444693905286e-05</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.001029957573542912</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0.0007021361340068848</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>7686.317639689291</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1.1951</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.000897744644965</v>
+      </c>
+      <c r="B121" t="n">
+        <v>69.00603163359007</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.907553061224897e-06</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.2888029670395981</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.156212766364264e-06</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.002289999977736549</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.502920615145876e-07</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0003896314194859879</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.158559363928712</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.0001081177680672029</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.00268641570926332</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.002321107638379479</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-0.0002052573379638912</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-7.263164814122223e-05</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.001136205681901912</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.0006870398096147802</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>7676.58844078461</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.2087</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.000864609883623</v>
+      </c>
+      <c r="B122" t="n">
+        <v>68.85135477221192</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-7.044348621635389e-07</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.2821395055041996</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.214207683306932e-06</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.002411245820745488</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3.028908153597563e-07</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.0004022183746686719</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.166657629812035</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.0001144343576443092</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.002802900009632503</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.002357051359716159</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-0.0002177179219851389</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-7.41125886728472e-05</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.0011827828002582</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0.0007000054818157682</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>7666.466248815208</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1.2223</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.000832405464665</v>
+      </c>
+      <c r="B123" t="n">
+        <v>68.69005292254643</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-2.186362744327467e-06</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.2749694995953598</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.268710395190757e-06</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.002536019931523023</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.317960079736934e-07</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0003903877834980866</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.1749771659826465</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.0001397583837322389</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.002920398886077847</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.002323307508975768</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-0.000230078033670848</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-6.978678760162292e-05</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.00117356471008467</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.0006920913270745602</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>7655.92978002418</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.2359</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.00079878934053</v>
+      </c>
+      <c r="B124" t="n">
+        <v>68.52182247334194</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4.623973908657968e-06</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.2669976279511726</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.40053689059382e-06</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.002674603753213022</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-3.318709051128353e-07</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0003973010705022637</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.1842759525121343</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.0001799886909002776</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.003048732985326362</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.00263762912832497</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-0.0002273728571287267</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-5.85112587164877e-05</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.001085685576379551</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0.0007023024704325444</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>7644.97184846961</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.2495</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.000760418957666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>68.34996027060961</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.27936233612561e-05</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.2581981193265205</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.423765200969182e-06</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.00278153481470737</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1.315952987917044e-07</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.0003902255346080845</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.1912000640917524</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-0.0001661834572316862</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.003177500552838216</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.002350293382575169</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-0.0002169832875205948</v>
+      </c>
+      <c r="N125" t="n">
+        <v>-4.671546180933641e-05</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.001079860573499462</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.0006846746882758876</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>7633.816594225581</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.2628</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.000722370045539</v>
+      </c>
+      <c r="B126" t="n">
+        <v>68.17043511178574</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.513780753134415e-05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.2484115446687884</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.513812002237275e-06</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.002900632042502952</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4.702543098262795e-08</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0004237137323785574</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.1988347289218717</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.0001514411201706865</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.003292947914769213</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.002364116688905606</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-0.0002081927671966417</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-3.719966392797002e-05</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.001062472475233646</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.0006895353757723431</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>7622.182647947377</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.2761</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.000685111148592</v>
+      </c>
+      <c r="B127" t="n">
+        <v>67.98130102509323</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.757909158748878e-06</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.2381752124217184</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.58698386043778e-06</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.00303560159015011</v>
+      </c>
+      <c r="G127" t="n">
+        <v>9.205248903559207e-08</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.0004480020505418426</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.2074856141376661</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-0.0001412116155255337</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.003400464573639924</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.002295448765535121</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-0.0001940171502289013</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-3.002162836168999e-05</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.001072963866000813</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.000666909870645374</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>7609.962278133773</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.2894</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.000641955810423</v>
+      </c>
+      <c r="B128" t="n">
+        <v>67.78170594629036</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-7.3483894379762e-07</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.2276732897334799</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.708623825318064e-06</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.003181428107033226</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3.011809300664519e-07</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.0005008117793783306</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.2169147877476059</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-0.0001527974680505799</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.003502738297839246</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.002663420158200309</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-0.0001764701393156607</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-2.525674813188189e-05</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.001053993828584916</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.0006699015418470531</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>7597.135237060668</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1.3027</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.000600902681734</v>
+      </c>
+      <c r="B129" t="n">
+        <v>67.57773032739266</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.645560136038331e-07</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.2161960507967857</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.71525524983289e-06</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.003309247141170518</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-7.474774080640898e-07</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.0005237457645827664</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.2248924372481775</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-0.0001566072214658643</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.003593202443919717</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.002258624726437772</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-0.0001628445311042791</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-1.206833250721312e-05</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.001205977710136497</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0.0006470900699239669</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>7584.056253451391</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.3158</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.000554687805701</v>
+      </c>
+      <c r="B130" t="n">
+        <v>67.36679057738799</v>
+      </c>
+      <c r="C130" t="n">
+        <v>4.845660713629066e-06</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.2034873240340944</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.821174048239367e-06</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.00343050801551695</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-8.805355668477001e-07</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.0005796035526371733</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.2323999924664081</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-0.0001447960483199341</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.003671814033132812</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.002278854288136613</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-0.0001467213404026004</v>
+      </c>
+      <c r="N130" t="n">
+        <v>6.509150475069798e-06</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.001332352479480958</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0.0006607785508378928</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>7570.589715480543</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1.3288</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.000512405464665</v>
+      </c>
+      <c r="B131" t="n">
+        <v>67.14965727778714</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.609777519911277e-06</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.1905933816974963</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.922092441968629e-06</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.00355658320998482</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4.546201751391456e-07</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.0006127028857690074</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.2402428571053766</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-9.29152373123854e-05</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.003758264472554862</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.002198048059615963</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-0.0001253503072798974</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2.788098108373906e-05</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.00135124136175484</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0.0006406921301525199</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>7556.74916616687</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1.3418</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.000463400910778</v>
+      </c>
+      <c r="B132" t="n">
+        <v>66.92693828826296</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.255280308651936e-06</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.1783433162085886</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.042738955891426e-06</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.003698504670939451</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3.152492455479868e-07</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.0006751419204676374</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0.2493174033282734</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-2.059572879706158e-05</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.003857169124266787</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.002646696132725012</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-9.790654813844571e-05</v>
+      </c>
+      <c r="N132" t="n">
+        <v>5.090361132167275e-05</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.001155700817264065</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0.0006398460043681019</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>7542.629495996548</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1.3548</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.000415105414066</v>
+      </c>
+      <c r="B133" t="n">
+        <v>66.70555113284983</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-1.911068856690787e-06</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.1682091305459767</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.090919417459808e-06</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.003808415775341542</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1.149097250976547e-07</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0007164903456017692</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.2559458206180543</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-4.216083449298154e-05</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.003969636240325331</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.002181403532983239</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-7.485670044929444e-05</v>
+      </c>
+      <c r="N133" t="n">
+        <v>7.202717402906242e-05</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.00101176838003028</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0.0005876590328037305</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>7528.631423841064</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1.3674</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.000369781278462</v>
+      </c>
+      <c r="B134" t="n">
+        <v>66.47974273345703</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-7.338130390847215e-06</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.160790732517333</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.225490026287266e-06</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.003907443936582897</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4.367576707869742e-07</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.0007871302305160849</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.2619326589081914</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-6.260541075414665e-05</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.004088980380427653</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.002224355852155046</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-6.490469631467179e-05</v>
+      </c>
+      <c r="N134" t="n">
+        <v>9.060074076023387e-05</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0.001020877835301438</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0.0005692881546478663</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>7514.370459770985</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1.3801</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.000314769978074</v>
+      </c>
+      <c r="B135" t="n">
+        <v>66.2486229268567</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-1.487450521054876e-05</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.1558840025428346</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.342057147273875e-06</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.004030013096306291</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-6.494973362185921e-07</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.0008187148974608798</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0.2694871325874703</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-8.294343437979054e-05</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.004228429291804876</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.002150818521221252</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-7.616033189041435e-05</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.000110583123037027</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0.001101739622422706</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0.0005068965541077603</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>7499.852837186544</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1.3928</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.000265156687468</v>
+      </c>
+      <c r="B136" t="n">
+        <v>66.0113461516838</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-2.207670170217981e-05</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.1526971833946152</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.465068258164992e-06</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.004202623503457582</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1.62242189346736e-06</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.0008792840777654634</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.2802309143756676</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-0.0001536207453344951</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.004377017828751334</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.002735588782184671</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-9.869227163857686e-05</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.0001329286995679687</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0.001076875425930798</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0.0004850577966422805</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>7484.956634263665</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.4054</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.000212213459268</v>
+      </c>
+      <c r="B137" t="n">
+        <v>65.77544090253181</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-9.412363107887542e-06</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.1506087617248815</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.520186081796728e-06</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.004323423617473435</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2.35563552236128e-06</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.0009224068238501265</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.2869743143869118</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-0.0001951140862937352</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.004512563099267256</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.002183315139434512</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-0.0001293588601982609</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.0001506369422443657</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.0009450382772323233</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0.000428761747669669</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>7470.200531988297</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.4177</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.000157885174565</v>
+      </c>
+      <c r="B138" t="n">
+        <v>65.53349618635333</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.036328269485348e-05</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.1487152695544465</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.653312342320325e-06</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.004438856413560465</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1.389766426492836e-06</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.001004218819017089</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.2934282007833436</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-0.0001245766240126683</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.004618591606978879</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.002211759817973035</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-0.0001762620051451846</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.0001608468994164165</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.0008736259759366578</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0.0004247267514977604</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>7455.112274602936</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.4299</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.000103745319615</v>
+      </c>
+      <c r="B139" t="n">
+        <v>65.28548190626111</v>
+      </c>
+      <c r="C139" t="n">
+        <v>3.086805029815641e-05</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.1463692442967396</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.795384423033495e-06</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.004561203057513915</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-5.033791413661616e-07</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.001064409558338003</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.3003676126384438</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-5.320622317610229e-05</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.004718625821105302</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.00210511376859627</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-0.0002301337107447349</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.0001651708552680643</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.0008264893825918068</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0.0003894817505655442</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>7439.685738752482</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.4422</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.000045014538708</v>
+      </c>
+      <c r="B140" t="n">
+        <v>65.03264794512846</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.668816257547924e-05</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.1431450420544502</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.966316546510575e-06</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.004699491384044528</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-7.233894355506785e-07</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.001172822449297982</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.308417416352767</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-5.200586735597108e-05</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.00481223821142782</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.002666786222489852</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-0.0002747987939835484</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.0001691312890743933</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.0007573341695953055</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0.0004138778838802475</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>7424.023200895443</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1.4545</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9999917810760668</v>
+      </c>
+      <c r="B141" t="n">
+        <v>64.78505222915612</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3.228379010138584e-05</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.1385182390218952</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.061413867901839e-06</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.004770985223140495</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1.764703511558774e-06</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.001248228515090504</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-0.311885161110174</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-0.0001014183852345347</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.004901468617529658</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.002027031132533153</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-0.0003021546645037012</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.000167820272022019</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0.0006481656541526208</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0.0003973355833438241</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>7408.699458867789</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1.4663</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9999329332433801</v>
+      </c>
+      <c r="B142" t="n">
+        <v>64.53358910065403</v>
+      </c>
+      <c r="C142" t="n">
+        <v>3.927162903805826e-05</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.131589565579416</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.233297348438247e-06</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.004816450018552877</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-3.78926839091928e-07</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.001351113896531122</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-0.3135920402915988</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.429335672869458e-06</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.004965602853019995</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.002059033609616154</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-0.0003110634473762039</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.0001552197916476239</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0.0004973304560845562</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0.0004171411255508222</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>7393.19777582592</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1.4781</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9998771891381346</v>
+      </c>
+      <c r="B143" t="n">
+        <v>64.27728003598132</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.638222693352773e-05</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.1224727710954274</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.443804325807657e-06</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.004870286153482881</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2.610473285470061e-06</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.001400287705107111</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.3157886544480051</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.0001969489770521914</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.005022066374693127</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.001961995245475287</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-0.0002941688529807649</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.0001295332932779254</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0.0004294504523225502</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0.0003838564589359383</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>7377.428914340221</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9998175773992239</v>
+      </c>
+      <c r="B144" t="n">
+        <v>64.01519686662543</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.189219172619408e-06</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.1123843008832761</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.653614928255371e-06</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.004963385585090235</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2.90451491663224e-06</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.00146695041392615</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-0.3206512573789846</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.000212824999897903</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.005063230969622009</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.002645834957312541</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-0.0002456361297843038</v>
+      </c>
+      <c r="N144" t="n">
+        <v>9.097622789963455e-05</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0.0004740919110769439</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0.0004028556838669814</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>7361.361811226514</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1.5018</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9997617759487266</v>
+      </c>
+      <c r="B145" t="n">
+        <v>63.75676048050074</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-7.628332169937978e-06</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.1030962640434875</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.811202890529196e-06</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.005048673289256198</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.194823768551197e-06</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.00148874396720485</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-0.3246793980622552</v>
+      </c>
+      <c r="J145" t="n">
+        <v>9.69904236719706e-05</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.005107462313299975</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.001936753168345481</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-0.0001805040437626394</v>
+      </c>
+      <c r="N145" t="n">
+        <v>5.458735514322406e-05</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0.0004909385986472144</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0.0003818703273094821</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>7345.540933028978</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.5132</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9997028023612753</v>
+      </c>
+      <c r="B146" t="n">
+        <v>63.49201424261165</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-4.085094282717408e-06</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.09497034759493572</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3.966146340208669e-06</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.005121381347950749</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.407379023376613e-07</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.001558691731462656</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-0.3278830974681883</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.352375794527832e-05</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.005148018412773374</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.001957542354325542</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-0.0001135749934289312</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2.520748226226644e-05</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0.0005043649318567792</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0.0004271934430496654</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>7329.388530057208</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1.5246</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9996447912295499</v>
+      </c>
+      <c r="B147" t="n">
+        <v>63.22087771968292</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.17585234909355e-06</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.08800639778459023</v>
+      </c>
+      <c r="E147" t="n">
+        <v>4.137809670436836e-06</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.0051830293297352</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-6.799356573857823e-08</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.001598504223893768</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0.3303522774310826</v>
+      </c>
+      <c r="J147" t="n">
+        <v>4.733101029591212e-06</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.005207348353104328</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.001837853819213559</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-7.059261742694515e-05</v>
+      </c>
+      <c r="N147" t="n">
+        <v>8.312762953606171e-06</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0.0004589217662266448</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0.0004166436104583085</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>7312.890630709082</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.536</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9995853834710742</v>
+      </c>
+      <c r="B148" t="n">
+        <v>62.94391523772043</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.754781681527974e-05</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-0.08201673149163281</v>
+      </c>
+      <c r="E148" t="n">
+        <v>4.303906743959925e-06</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.005238274958340361</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.254158411111446e-07</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.001681634803543704</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.332557765671558</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.876313948784714e-05</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.005235452093246003</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.002591837321683604</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-5.493154883434155e-05</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-2.457881884524276e-06</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0.0004295476681267206</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0.0004397493609375207</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>7296.097660199121</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1.5474</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.999528584651712</v>
+      </c>
+      <c r="B149" t="n">
+        <v>62.6739636063792</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.136990683124266e-05</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-0.07706686438577987</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.459290032016528e-06</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.005270771806375444</v>
+      </c>
+      <c r="G149" t="n">
+        <v>7.358739981939564e-07</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.001722428861316767</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.3331064574876783</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6.956613230486726e-05</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.005235860166177545</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.001781717589024227</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-4.726481392363336e-05</v>
+      </c>
+      <c r="N149" t="n">
+        <v>-1.407517489867872e-06</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0.0005418079335339631</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0.0003816815975028117</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>7279.784440606083</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1.5583</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.999470822398381</v>
+      </c>
+      <c r="B150" t="n">
+        <v>62.40078248158765</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.787631265531237e-05</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.07300846517304435</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.614109225345386e-06</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.005313911685613088</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.668812526969142e-07</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.001801523559818628</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-0.3344677019920916</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5.76628214591595e-05</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.005204436394321696</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.00182735182764097</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-2.817644773478757e-05</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3.892117264475927e-06</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0.0006647323189462341</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0.0003750303246840651</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>7263.341823865328</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1.5692</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.999412476977568</v>
+      </c>
+      <c r="B151" t="n">
+        <v>62.12418916437097</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-9.203907760331945e-08</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-0.07018787098936551</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.805347260291383e-06</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.005393806424017541</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1.868904805860692e-06</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.001841866649020745</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.3381443345139709</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-3.701271862637539e-05</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.00520822313642173</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.001712470308397909</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-1.358112255542886e-05</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.185898203662862e-05</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0.0007086185715832582</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0.0003027006642008928</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>7246.757424016157</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.5801</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9993525356046549</v>
+      </c>
+      <c r="B152" t="n">
+        <v>61.84330226195162</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-7.063008215738406e-06</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-0.06851681151408627</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.974131796489458e-06</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.00552484334660145</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2.557150051823914e-06</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.00193238459626846</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.3451634318509773</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-5.11915159847075e-05</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.005233203064806505</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.002512949845189444</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-1.733330508864778e-05</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1.59694563184854e-05</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0.000564787843282983</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0.0002766536124307866</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>7229.973706081203</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.591</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9992946471917694</v>
+      </c>
+      <c r="B153" t="n">
+        <v>61.57021540076086</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-1.424422304605372e-06</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-0.06758710419673244</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.210452016061257e-06</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.005657238360600438</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2.659229159730134e-06</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.001997024782298945</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.3517707934633909</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-3.545413424935854e-05</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.005288202911414704</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.001652567348915928</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-2.145317586047864e-05</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1.6996811182425e-05</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0.0002608918389973913</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0.0002043641359436255</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>7213.702393052748</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1.6014</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9992352509360767</v>
+      </c>
+      <c r="B154" t="n">
+        <v>61.29191293266618</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.101979371450887e-05</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.06754238311234272</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.476125391910542e-06</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.00573406615550683</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1.392714124176087e-06</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.002121831905034186</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-0.3549712701411142</v>
+      </c>
+      <c r="J154" t="n">
+        <v>6.724145685838042e-05</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.005340145462258579</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.001677969960446296</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-1.760462367343567e-05</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.689907812127958e-05</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0.0001254237383400461</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0.0002309799234883154</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>7197.18648015824</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.6118</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9991751526395681</v>
+      </c>
+      <c r="B155" t="n">
+        <v>61.00807361181387</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.940611677067672e-05</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.06835650128193774</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5.745194524308719e-06</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.005796931274751223</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.844007056325149e-07</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.00218740089522329</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-0.357287260696014</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0001959158955090043</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.00540760580086955</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.001512738964899799</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-1.077975416494818e-05</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2.003460919997001e-05</v>
+      </c>
+      <c r="O155" t="n">
+        <v>7.670905172196921e-05</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0.000196353973395165</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>7180.425049286046</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1.6223</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9991139216731317</v>
+      </c>
+      <c r="B156" t="n">
+        <v>60.71876271059386</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.368214752084723e-05</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-0.06960112281163965</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.948248671110203e-06</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.005894418109967955</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.110976941634334e-06</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.002288021160350473</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-0.3618107340567082</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.0002923683631023029</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.005466675153124941</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.002359685457633568</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-1.176300335156389e-05</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2.474835958340904e-05</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0.0001405752601335844</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0.0002251289349990517</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>7163.426456621067</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1.6327</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9990554255355035</v>
+      </c>
+      <c r="B157" t="n">
+        <v>60.43876231704802</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.544780709132193e-05</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.07110986971624786</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.219578787421789e-06</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-0.005972951731489289</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.984301038198692e-06</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.002356059401181076</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-0.3646210361125166</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.0003895537604103373</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.005527936061445624</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.001408990757487348</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-2.583651254034969e-05</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3.394555192859204e-05</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0.0003191322027291468</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.0001839363495154138</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>7147.041593587875</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1.6426</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9989957627255862</v>
+      </c>
+      <c r="B158" t="n">
+        <v>60.15500125559864</v>
+      </c>
+      <c r="C158" t="n">
+        <v>9.81177269541337e-06</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.07296319640338898</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.474151537599866e-06</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-0.006057256604486421</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3.977809240951296e-07</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.002487090131702888</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-0.3679729017447199</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0002896150376855754</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.005578010463765671</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.001425161142559742</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-4.090055478925056e-05</v>
+      </c>
+      <c r="N158" t="n">
+        <v>4.833628977713312e-05</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0.000503349835858186</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0.0002099833774957628</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>7130.516398352762</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1.6525</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9989351449485581</v>
+      </c>
+      <c r="B159" t="n">
+        <v>59.86723993178538</v>
+      </c>
+      <c r="C159" t="n">
+        <v>9.04237384794181e-06</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.07541892424075261</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.736779367334998e-06</v>
+      </c>
+      <c r="F159" t="n">
+        <v>-0.006161241445100355</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2.933995786755272e-06</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.002572387287401925</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-0.3724134547328574</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.0001799112160124438</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.005666073743129253</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.001279051944526002</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-6.035401734035643e-05</v>
+      </c>
+      <c r="N159" t="n">
+        <v>6.563873054796949e-05</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0.0006340708160569592</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0.0001457076195738836</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>7113.83857104132</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1.6625</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9988730534660141</v>
+      </c>
+      <c r="B160" t="n">
+        <v>59.57535723093645</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.451283478383061e-05</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-0.07836564593909391</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.918630271607962e-06</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-0.006296709259908923</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-3.598339540602811e-06</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.002713115507623086</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-0.3788023153614062</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0001697963650607743</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.005756465985720846</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.00223971861389809</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-9.509778814004608e-05</v>
+      </c>
+      <c r="N160" t="n">
+        <v>6.679113323477071e-05</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0.0006654577022708589</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0.0001318581418528517</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>7097.002010456004</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1.6724</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9988135086523868</v>
+      </c>
+      <c r="B161" t="n">
+        <v>59.29427443263808</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.031729411416487e-05</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-0.08110579980473334</v>
+      </c>
+      <c r="E161" t="n">
+        <v>7.248908100405396e-06</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.006427715573621182</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1.611007075425869e-06</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.002809056657132512</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-0.3843841181012349</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.0003144504930593498</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.005851856411555257</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.001247922860337689</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-0.0001311412671782054</v>
+      </c>
+      <c r="N161" t="n">
+        <v>5.762553674101684e-05</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0.0005362640485348964</v>
+      </c>
+      <c r="P161" t="n">
+        <v>3.178494259031877e-05</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>7080.855867568687</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1.6818</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9987521638050262</v>
+      </c>
+      <c r="B162" t="n">
+        <v>59.00812646314725</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.627255826240167e-05</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.08361193587887331</v>
+      </c>
+      <c r="E162" t="n">
+        <v>7.592618037939079e-06</v>
+      </c>
+      <c r="F162" t="n">
+        <v>-0.006605853109799292</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2.358231714960457e-07</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.002972421114147149</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-0.3928284013043235</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.0004373278987488994</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.005949470616099773</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.001286494902657585</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-0.0001731718140517757</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2.879465331398212e-05</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0.000423615340695789</v>
+      </c>
+      <c r="P162" t="n">
+        <v>1.773639795870395e-05</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>7064.505075914554</v>
+      </c>
+      <c r="R162" t="n">
+        <v>1.6912</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9986890099510879</v>
+      </c>
+      <c r="B163" t="n">
+        <v>58.71476787916269</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.456972723524335e-05</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.08543934956247559</v>
+      </c>
+      <c r="E163" t="n">
+        <v>7.965674689792005e-06</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.006818414480013493</v>
+      </c>
+      <c r="G163" t="n">
+        <v>7.519443713678433e-07</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.003080136771872974</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-0.4030992239275876</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0004778765074893648</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.00610443676327655</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.001145557140983044</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-0.0001947212794299957</v>
+      </c>
+      <c r="N163" t="n">
+        <v>-1.223562420780345e-05</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0.0004041415404412924</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-5.91451687951875e-05</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>7047.830404220644</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1.7006</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9986233876539048</v>
+      </c>
+      <c r="B164" t="n">
+        <v>58.41265923802028</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.792857814902118e-05</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.085641491370035</v>
+      </c>
+      <c r="E164" t="n">
+        <v>8.223072713900828e-06</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.007042806382526565</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2.432956922077083e-08</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.003243413777501106</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-0.4141480246059854</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.000430416171247597</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.00627355886478889</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.002177084032864633</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-0.0001894570258706978</v>
+      </c>
+      <c r="N164" t="n">
+        <v>-6.912085575141583e-05</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0.0005636526295272069</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-2.90419441180068e-05</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>7030.754129405868</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9985602715466352</v>
+      </c>
+      <c r="B165" t="n">
+        <v>58.11877025917806</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.679619700905195e-05</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.08314190380771604</v>
+      </c>
+      <c r="E165" t="n">
+        <v>8.552245619147582e-06</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.007204526635182998</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1.675435735462973e-06</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.003342018342233028</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-0.4209016185603718</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.0003237235146148688</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.006439244064391596</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.001091547087338093</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-0.0001851672875914844</v>
+      </c>
+      <c r="N165" t="n">
+        <v>-0.0001256892293883866</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0.0007099357336714831</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-7.251505730818383e-05</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>7014.221008804654</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1.7189</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9984954614943499</v>
+      </c>
+      <c r="B166" t="n">
+        <v>57.81744348119413</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7.190777819008689e-06</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.07760971109510048</v>
+      </c>
+      <c r="E166" t="n">
+        <v>8.872447000901872e-06</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.007337903003541911</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1.008728362785625e-06</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.003504184937475853</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-0.4263584205318491</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0003385560610223941</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.006571615662139015</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.001131057127175555</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-0.0001738012096611383</v>
+      </c>
+      <c r="N166" t="n">
+        <v>-0.0001750306494132943</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0.0007962438075996094</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-2.559535067872676e-05</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>6997.359018523031</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.7279</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9984294090065778</v>
+      </c>
+      <c r="B167" t="n">
+        <v>57.50817004928692</v>
+      </c>
+      <c r="C167" t="n">
+        <v>8.867145214669814e-06</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.0692369753706456</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.253761915506157e-06</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-0.007486714565019396</v>
+      </c>
+      <c r="G167" t="n">
+        <v>7.471535821892377e-07</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.003581255270644025</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-0.4327957850864863</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.0004034035323052414</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.006722608093246379</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.0009644581075251252</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-0.0001600928913790971</v>
+      </c>
+      <c r="N167" t="n">
+        <v>-0.0002046058927226514</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0.0007161605298872585</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-8.141815957883472e-05</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>6980.140267431973</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.7368</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.998361493439029</v>
+      </c>
+      <c r="B168" t="n">
+        <v>57.1906151533892</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.546784820280808e-05</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.05843509516137086</v>
+      </c>
+      <c r="E168" t="n">
+        <v>9.541023854543866e-06</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.007688959175914996</v>
+      </c>
+      <c r="G168" t="n">
+        <v>5.038383345454532e-07</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.00371082911049648</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-0.4425775875077304</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.0003744212824064573</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.00685926125918995</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.002170288386487208</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-0.0001183029684012293</v>
+      </c>
+      <c r="N168" t="n">
+        <v>-0.0002108326515687687</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0.0005741549342461179</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-7.425679984693313e-05</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>6962.539844919373</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.7457</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9982964363636362</v>
+      </c>
+      <c r="B169" t="n">
+        <v>56.88350276793913</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.00402026255874e-05</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.04653872219076816</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.000970962375814e-05</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-0.00786820994366672</v>
+      </c>
+      <c r="G169" t="n">
+        <v>6.992708950676348e-07</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.003777910716673848</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-0.4501710794400404</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.0003728425024800889</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.006991455953651919</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.001004750094762834</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-6.38476032417121e-05</v>
+      </c>
+      <c r="N169" t="n">
+        <v>-0.0001959486892063563</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0.0004211398142535935</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-0.0001457967006764828</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>6945.579804078056</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1.7541</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.99822959919042</v>
+      </c>
+      <c r="B170" t="n">
+        <v>56.56940737617361</v>
+      </c>
+      <c r="C170" t="n">
+        <v>7.483078901894514e-05</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.03380672858292832</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.042823149030798e-05</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.008034740893236634</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2.520532434285725e-06</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.003906336622772526</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-0.4570598751897454</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0004516127273325464</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.00709882315219355</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.001119629915348787</v>
+      </c>
+      <c r="M170" t="n">
+        <v>4.955372847281696e-06</v>
+      </c>
+      <c r="N170" t="n">
+        <v>-0.000176110821369827</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0.0003199258014947321</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-0.0001286836377227267</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>6928.310144988978</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1.7625</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9981612436498567</v>
+      </c>
+      <c r="B171" t="n">
+        <v>56.24812808605536</v>
+      </c>
+      <c r="C171" t="n">
+        <v>7.333985265268671e-05</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-0.0212826206645607</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.08416946952721e-05</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.008225858523191095</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.494687550581873e-06</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.003930530452511898</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-0.4652122218848971</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.0003840011346106707</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.007234510612282379</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.0009919659786673638</v>
+      </c>
+      <c r="M171" t="n">
+        <v>7.828167536794669e-05</v>
+      </c>
+      <c r="N171" t="n">
+        <v>-0.000158191831526733</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0.0002097739728888814</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-0.0002203625527644534</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>6910.743932754553</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1.7709</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9980907055827291</v>
+      </c>
+      <c r="B172" t="n">
+        <v>55.91891803939207</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.842546289949583e-05</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.009963644675255148</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.1030008452183e-05</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.008473837590487438</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2.020435341617481e-06</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.004030138399562214</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-0.4768455453046231</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0001906602267401279</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.007365345722162253</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.00231726275386394</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.0001385309180375555</v>
+      </c>
+      <c r="N172" t="n">
+        <v>-0.0001478425007147898</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0.0001362464887615375</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-0.0002158386103740354</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>6892.846668778498</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1.7793</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.998023045100354</v>
+      </c>
+      <c r="B173" t="n">
+        <v>55.60089740447143</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.061637261295581e-05</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-0.0007893131806469168</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.151943118777399e-05</v>
+      </c>
+      <c r="F173" t="n">
+        <v>-0.008713176433799966</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-3.316523055250452e-06</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.004095739738034082</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-0.4869990361125166</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.0001086184541665265</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.007491534190101385</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.001014418397457094</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.0001698660248028634</v>
+      </c>
+      <c r="N173" t="n">
+        <v>-0.000148990403973876</v>
+      </c>
+      <c r="O173" t="n">
+        <v>3.355747150415095e-05</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-0.0002907624995173179</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>6875.642940465157</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.7872</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9979531904199694</v>
+      </c>
+      <c r="B174" t="n">
+        <v>55.2746231554881</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.221159355784233e-05</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.006915704141068949</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.199135494591331e-05</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.008942274245235285</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2.719529487541251e-06</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.004290937977893244</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-0.496511001892768</v>
+      </c>
+      <c r="J174" t="n">
+        <v>9.962166687805724e-05</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.00759187392121587</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.001061027164966192</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.0001838513433097055</v>
+      </c>
+      <c r="N174" t="n">
+        <v>-0.0001641485213317591</v>
+      </c>
+      <c r="O174" t="n">
+        <v>7.703648808522327e-05</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-0.0002438749148609659</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>6858.101731280654</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1.7951</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9978814350480688</v>
+      </c>
+      <c r="B175" t="n">
+        <v>54.93912254268098</v>
+      </c>
+      <c r="C175" t="n">
+        <v>8.326318877483522e-05</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.0133802592626926</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.24753260273155e-05</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-0.009192533337156352</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2.215044892860852e-06</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.004390071515660501</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-0.5067320774723111</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3.749860702809196e-05</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.007717348267656153</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.000833141753424411</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.0001791707131520961</v>
+      </c>
+      <c r="N175" t="n">
+        <v>-0.0001929940350585712</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0.0001776175993047732</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-0.0003129822448678623</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>6840.187495770665</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1.8031</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9978071697419465</v>
+      </c>
+      <c r="B176" t="n">
+        <v>54.59351115233973</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.0001081661936417977</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.01884423071547107</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.266412123034792e-05</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-0.009488146476640241</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1.569199220801819e-06</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.004567333489526113</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-0.5194715764884464</v>
+      </c>
+      <c r="J176" t="n">
+        <v>-5.466752076893254e-05</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.007808232552324731</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.002287348969988424</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.0001519164498353442</v>
+      </c>
+      <c r="N176" t="n">
+        <v>-0.0002446628979258654</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0.0003455088940890032</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-0.0002867168732847604</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>6821.860551266575</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1.811</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9977360222634507</v>
+      </c>
+      <c r="B177" t="n">
+        <v>54.25930680459512</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.0001126023058881958</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.02313189881640074</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.309395526546871e-05</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-0.009746651594535334</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1.346198441693271e-07</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.004667819669485055</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-0.5291384765652817</v>
+      </c>
+      <c r="J177" t="n">
+        <v>-8.143663916440819e-05</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.007892705416705085</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.0008635793658959126</v>
+      </c>
+      <c r="M177" t="n">
+        <v>8.442122678469669e-05</v>
+      </c>
+      <c r="N177" t="n">
+        <v>-0.0002962269717112048</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0.0003183132674848599</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-0.0003873961407178622</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>6804.248392629238</v>
+      </c>
+      <c r="R177" t="n">
+        <v>1.8184</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9976627483892729</v>
+      </c>
+      <c r="B178" t="n">
+        <v>53.91525871329247</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.762213190907205e-05</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.02660747458945672</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.347127570470528e-05</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-0.009987236630797775</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.768511966139299e-07</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.004886501559983962</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-0.5379357729427861</v>
+      </c>
+      <c r="J178" t="n">
+        <v>-0.000176101067392291</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.007936223897546895</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.0009626863227891493</v>
+      </c>
+      <c r="M178" t="n">
+        <v>-1.803639484305015e-05</v>
+      </c>
+      <c r="N178" t="n">
+        <v>-0.0003362256138028036</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0.0003363194044654335</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-0.0003606923320716966</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>6786.237470319338</v>
+      </c>
+      <c r="R178" t="n">
+        <v>1.8258</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9975874905717657</v>
+      </c>
+      <c r="B179" t="n">
+        <v>53.55938345233411</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.73253274376434e-05</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.03006921820772474</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.382221383379052e-05</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-0.0102818987080452</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-6.293820706539374e-07</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.004960461836318689</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-0.5492379218530388</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.0003313411202053931</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.008011883703472949</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.0007132796420319334</v>
+      </c>
+      <c r="M179" t="n">
+        <v>-0.0001517688855149641</v>
+      </c>
+      <c r="N179" t="n">
+        <v>-0.0003542856757013137</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0.0003334642207625119</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-0.0004928902048603812</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>6767.731871700069</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1.8333</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9975092646652051</v>
+      </c>
+      <c r="B180" t="n">
+        <v>53.18904464871348</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.250898696276442e-05</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.03467337883449786</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.384101090566008e-05</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.01068927873772981</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1.57160671900792e-06</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.005129299400301591</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-0.5669497106501002</v>
+      </c>
+      <c r="J180" t="n">
+        <v>-0.0004716614643765535</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.008046963355880156</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.00240727607851666</v>
+      </c>
+      <c r="M180" t="n">
+        <v>-0.0002685216346126426</v>
+      </c>
+      <c r="N180" t="n">
+        <v>-0.0003544378743031256</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0.0002950801031194844</v>
+      </c>
+      <c r="P180" t="n">
+        <v>-0.0005259182807551583</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>6748.601466389642</v>
+      </c>
+      <c r="R180" t="n">
+        <v>1.8407</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9974337447798955</v>
+      </c>
+      <c r="B181" t="n">
+        <v>52.82710865238659</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.967878584209459e-05</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.04060379149405371</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.419221822659052e-05</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-0.01110673960398043</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2.989143849296681e-06</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.005215736272967149</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-0.5836086150184591</v>
+      </c>
+      <c r="J181" t="n">
+        <v>-0.0006210888351980659</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.008063928672119112</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.0007361119628459886</v>
+      </c>
+      <c r="M181" t="n">
+        <v>-0.0003660685432234778</v>
+      </c>
+      <c r="N181" t="n">
+        <v>-0.0003485139293340455</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0.0001959796343485466</v>
+      </c>
+      <c r="P181" t="n">
+        <v>-0.0007068215253525869</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>6730.018178925234</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1.8477</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9973550318772136</v>
+      </c>
+      <c r="B182" t="n">
+        <v>52.44989967579319</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.443696033095463e-05</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.04838729823206725</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.445338686183611e-05</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.01151896566233766</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-4.981787519574969e-06</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.005489293051547872</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-0.5998737930323644</v>
+      </c>
+      <c r="J182" t="n">
+        <v>-0.0007951127166090594</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.008020909711011787</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.0008265146385049381</v>
+      </c>
+      <c r="M182" t="n">
+        <v>-0.0004439485941318091</v>
+      </c>
+      <c r="N182" t="n">
+        <v>-0.0003465186240039467</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0.0001537872189141208</v>
+      </c>
+      <c r="P182" t="n">
+        <v>-0.000750936561071569</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>6710.784955645626</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1.8546</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9972733478158203</v>
+      </c>
+      <c r="B183" t="n">
+        <v>52.05607918142464</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.624162441371124e-05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.05797347673211672</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.461003532262486e-05</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.01196544103019059</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-6.081622888702983e-06</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.005611045309629991</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-0.6170489162871761</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-0.0009044898141546827</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.008025941756506437</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.0005048251956030996</v>
+      </c>
+      <c r="M183" t="n">
+        <v>-0.0005015138847231124</v>
+      </c>
+      <c r="N183" t="n">
+        <v>-0.000350150498006784</v>
+      </c>
+      <c r="O183" t="n">
+        <v>6.099920365652817e-05</v>
+      </c>
+      <c r="P183" t="n">
+        <v>-0.0009663576846544369</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>6690.85543692902</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1.8616</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9971878907404286</v>
+      </c>
+      <c r="B184" t="n">
+        <v>51.64438467607427</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9.021540120293866e-05</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.06924934812002435</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.430779005996707e-05</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-0.01247528978714791</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-3.55421047147985e-06</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.005881676567346692</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-0.6382060993609564</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-0.0007957456220258234</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.008001164479302058</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.00256153348924335</v>
+      </c>
+      <c r="M184" t="n">
+        <v>-0.0005411077548730345</v>
+      </c>
+      <c r="N184" t="n">
+        <v>-0.0003545056740157363</v>
+      </c>
+      <c r="O184" t="n">
+        <v>-0.0001581074733342024</v>
+      </c>
+      <c r="P184" t="n">
+        <v>-0.00106239529842092</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>6670.186012948608</v>
+      </c>
+      <c r="R184" t="n">
+        <v>1.8685</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9971055113509869</v>
+      </c>
+      <c r="B185" t="n">
+        <v>51.2424333576957</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.0001044480102865379</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.08154300905890068</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.443277949793759e-05</v>
+      </c>
+      <c r="F185" t="n">
+        <v>-0.01296232026581211</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-7.16878491253161e-07</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.006046736431434794</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-0.6558851786885554</v>
+      </c>
+      <c r="J185" t="n">
+        <v>-0.0006546930644013412</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.007979531034247372</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.0005102011833080714</v>
+      </c>
+      <c r="M185" t="n">
+        <v>-0.0005690526833967406</v>
+      </c>
+      <c r="N185" t="n">
+        <v>-0.0003471450771876839</v>
+      </c>
+      <c r="O185" t="n">
+        <v>-0.0005696916320215774</v>
+      </c>
+      <c r="P185" t="n">
+        <v>-0.001361760656094215</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>6650.155121750844</v>
+      </c>
+      <c r="R185" t="n">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9970196501264967</v>
+      </c>
+      <c r="B186" t="n">
+        <v>50.82225489777176</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0001238730443803545</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.09599608838365659</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.446781388899477e-05</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-0.01343411756991061</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2.081263201565181e-06</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.006441708012816469</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-0.6729201994715241</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-0.0005146329748231852</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.00786099919660411</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.000667787507360398</v>
+      </c>
+      <c r="M186" t="n">
+        <v>-0.0005771734808832257</v>
+      </c>
+      <c r="N186" t="n">
+        <v>-0.0003245414591221979</v>
+      </c>
+      <c r="O186" t="n">
+        <v>-0.0009643508911813871</v>
+      </c>
+      <c r="P186" t="n">
+        <v>-0.001570964165561095</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>6629.388495270479</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1.8815</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9969305363467699</v>
+      </c>
+      <c r="B187" t="n">
+        <v>50.38005291130226</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0001465236443893484</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.1127716669742509</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.425150758777885e-05</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-0.01398602430831506</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2.208215631054147e-06</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.006590145115158637</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-0.6926658907441765</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-0.0005123681272131328</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.007766110980596689</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.000346400864985049</v>
+      </c>
+      <c r="M187" t="n">
+        <v>-0.0005606237744943799</v>
+      </c>
+      <c r="N187" t="n">
+        <v>-0.000280220216405281</v>
+      </c>
+      <c r="O187" t="n">
+        <v>-0.001356139482278368</v>
+      </c>
+      <c r="P187" t="n">
+        <v>-0.002098091647410678</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>6607.73736378474</v>
+      </c>
+      <c r="R187" t="n">
+        <v>1.8881</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9968369032889187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>49.91129091096493</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0001676569112344205</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.13111060473543</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.348805248183161e-05</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.01469844458998145</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1.424032276292468e-06</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.006907348688663272</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-0.7216036625063246</v>
+      </c>
+      <c r="J188" t="n">
+        <v>-0.0007230905513925893</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.007581163709129338</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.003063437279555574</v>
+      </c>
+      <c r="M188" t="n">
+        <v>-0.0004848800127934445</v>
+      </c>
+      <c r="N188" t="n">
+        <v>-0.0002398665322510054</v>
+      </c>
+      <c r="O188" t="n">
+        <v>-0.001675279346856954</v>
+      </c>
+      <c r="P188" t="n">
+        <v>-0.002585510191522124</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>6585.012872169985</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1.8946</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9967458700624051</v>
+      </c>
+      <c r="B189" t="n">
+        <v>49.44618962163377</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.0001852811390183839</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.1483736396808193</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.317357876896947e-05</v>
+      </c>
+      <c r="F189" t="n">
+        <v>-0.0154377359406308</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-4.473380543446775e-06</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.007086573916489818</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-0.7471592027510728</v>
+      </c>
+      <c r="J189" t="n">
+        <v>-0.0008951276919518002</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.007382452523246979</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.000726581097712419</v>
+      </c>
+      <c r="M189" t="n">
+        <v>-0.0003684728222596653</v>
+      </c>
+      <c r="N189" t="n">
+        <v>-0.0002159848079489957</v>
+      </c>
+      <c r="O189" t="n">
+        <v>-0.002156021502308675</v>
+      </c>
+      <c r="P189" t="n">
+        <v>-0.003371109901221941</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>6562.677025307028</v>
+      </c>
+      <c r="R189" t="n">
+        <v>1.9006</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9966497535503456</v>
+      </c>
+      <c r="B190" t="n">
+        <v>48.95061265718408</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.0002347027263432096</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.1648013036144487</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.285539485358685e-05</v>
+      </c>
+      <c r="F190" t="n">
+        <v>-0.01625692217169843</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-5.452356668227355e-06</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.007609343552732032</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-0.7766132795112536</v>
+      </c>
+      <c r="J190" t="n">
+        <v>-0.0009038387711677152</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.007013429193334907</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.001062200463770548</v>
+      </c>
+      <c r="M190" t="n">
+        <v>-0.0002274657411117483</v>
+      </c>
+      <c r="N190" t="n">
+        <v>-0.0002084903667905587</v>
+      </c>
+      <c r="O190" t="n">
+        <v>-0.00253927369280767</v>
+      </c>
+      <c r="P190" t="n">
+        <v>-0.004092468065747494</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>6539.128544169213</v>
+      </c>
+      <c r="R190" t="n">
+        <v>1.9067</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9965480744138976</v>
+      </c>
+      <c r="B191" t="n">
+        <v>48.41780245872454</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0002943812050467564</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1797020953781751</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.216521131879979e-05</v>
+      </c>
+      <c r="F191" t="n">
+        <v>-0.01729393513172542</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-4.482853597343237e-06</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.007826914091675831</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-0.8138501398399581</v>
+      </c>
+      <c r="J191" t="n">
+        <v>-0.000798461290466446</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.006697730931749705</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.00074557927357789</v>
+      </c>
+      <c r="M191" t="n">
+        <v>-9.061646184265289e-05</v>
+      </c>
+      <c r="N191" t="n">
+        <v>-0.0002099328534875835</v>
+      </c>
+      <c r="O191" t="n">
+        <v>-0.002955952833276063</v>
+      </c>
+      <c r="P191" t="n">
+        <v>-0.005260065223199865</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>6514.115989501222</v>
+      </c>
+      <c r="R191" t="n">
+        <v>1.9128</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9964387088885143</v>
+      </c>
+      <c r="B192" t="n">
+        <v>47.83832862015329</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.0003382972882892002</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.1929580694371676</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.079853136929405e-05</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-0.01865546783538539</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-4.358514113872833e-06</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.008341389148249044</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-0.8688591725042634</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-0.0007630194445953788</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.006294118659684807</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.004402098579514186</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2.032784224213318e-05</v>
+      </c>
+      <c r="N192" t="n">
+        <v>-0.000226229250123521</v>
+      </c>
+      <c r="O192" t="n">
+        <v>-0.003262141402851739</v>
+      </c>
+      <c r="P192" t="n">
+        <v>-0.006440940582946976</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>6487.267143019421</v>
+      </c>
+      <c r="R192" t="n">
+        <v>1.9188</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9963294823410357</v>
+      </c>
+      <c r="B193" t="n">
+        <v>47.24681893892543</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.0003768346963540793</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.2042812798489748</v>
+      </c>
+      <c r="E193" t="n">
+        <v>9.791841876507334e-06</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-0.02018731259908923</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-7.059485416960704e-06</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.008665867398455464</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-0.9237443665973274</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-0.0009078430245943661</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.00596506129475035</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.001543054767988078</v>
+      </c>
+      <c r="M193" t="n">
+        <v>8.84810984453627e-05</v>
+      </c>
+      <c r="N193" t="n">
+        <v>-0.0002527983095153651</v>
+      </c>
+      <c r="O193" t="n">
+        <v>-0.003561488849522984</v>
+      </c>
+      <c r="P193" t="n">
+        <v>-0.008081872134702397</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>6460.20024399024</v>
+      </c>
+      <c r="R193" t="n">
+        <v>1.9245</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9962105552369709</v>
+      </c>
+      <c r="B194" t="n">
+        <v>46.59363586889301</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0004684404836854621</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.2150181944064523</v>
+      </c>
+      <c r="E194" t="n">
+        <v>9.224402189580031e-06</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-0.02196937269691347</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1.03857927222196e-05</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.009500934825598696</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-0.9911792626450027</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-0.001113146676390997</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.005473912285677217</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.002289364622156204</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.0001530395088403403</v>
+      </c>
+      <c r="N194" t="n">
+        <v>-0.0002716784036030472</v>
+      </c>
+      <c r="O194" t="n">
+        <v>-0.003741049194118926</v>
+      </c>
+      <c r="P194" t="n">
+        <v>-0.009807674453224641</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>6430.711271549082</v>
+      </c>
+      <c r="R194" t="n">
+        <v>1.9301</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9960801965930173</v>
+      </c>
+      <c r="B195" t="n">
+        <v>45.86025473285733</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.0005713157670819513</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.2251941680986309</v>
+      </c>
+      <c r="E195" t="n">
+        <v>8.088444244436498e-06</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-0.02428092056670602</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1.353424092485748e-05</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.009845315388033545</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-1.077599477670958</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-0.001308800038422443</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.005200171786152703</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.002105761371526096</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.0002447966835842657</v>
+      </c>
+      <c r="N195" t="n">
+        <v>-0.0002750044754584472</v>
+      </c>
+      <c r="O195" t="n">
+        <v>-0.004209120913573396</v>
+      </c>
+      <c r="P195" t="n">
+        <v>-0.01230599317979135</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>6398.090620495806</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1.9358</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9959341880586945</v>
+      </c>
+      <c r="B196" t="n">
+        <v>45.01989248140028</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.000641057087968366</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.2342767535088576</v>
+      </c>
+      <c r="E196" t="n">
+        <v>6.318391731500422e-06</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-0.02737185435655254</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1.453290109696036e-05</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.01050432275253823</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-1.203199946215401</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-0.001355816606342273</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.00491828311132683</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.007591513328347303</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.0003973288377798804</v>
+      </c>
+      <c r="N196" t="n">
+        <v>-0.0002618617097631041</v>
+      </c>
+      <c r="O196" t="n">
+        <v>-0.005379908410064502</v>
+      </c>
+      <c r="P196" t="n">
+        <v>-0.01501380859263839</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>6361.312299712426</v>
+      </c>
+      <c r="R196" t="n">
+        <v>1.9414</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9957816472255021</v>
+      </c>
+      <c r="B197" t="n">
+        <v>44.11281217368489</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.0006260389585202672</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.2411400129523435</v>
+      </c>
+      <c r="E197" t="n">
+        <v>5.218547435461577e-06</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-0.03100528304941811</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1.344390947003541e-05</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.01088730958884035</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-1.334391605104852</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-0.00126066488529218</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.00482559193918124</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.003662241849767886</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.000593200640961901</v>
+      </c>
+      <c r="N197" t="n">
+        <v>-0.0002329842529719233</v>
+      </c>
+      <c r="O197" t="n">
+        <v>-0.006911189837668575</v>
+      </c>
+      <c r="P197" t="n">
+        <v>-0.01850682724073953</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>6322.245153075532</v>
+      </c>
+      <c r="R197" t="n">
+        <v>1.9467</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9956073716309666</v>
+      </c>
+      <c r="B198" t="n">
+        <v>43.04533305597721</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.0005861078446865685</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.2457829291918367</v>
+      </c>
+      <c r="E198" t="n">
+        <v>5.217194879681972e-06</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-0.03557217226513747</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1.017698557760568e-05</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.01186356517249937</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-1.505218106107457</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-0.001094259458967411</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.004567167183173071</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.004801796052749274</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.0007972461510119751</v>
+      </c>
+      <c r="N198" t="n">
+        <v>-0.0001810364431355484</v>
+      </c>
+      <c r="O198" t="n">
+        <v>-0.008951398617778116</v>
+      </c>
+      <c r="P198" t="n">
+        <v>-0.02228473360102805</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>6277.132184664488</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1.9519</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9954053057176588</v>
+      </c>
+      <c r="B199" t="n">
+        <v>41.75776889863383</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.0005472549290912848</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.2474656425921808</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.41439383722719e-06</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-0.04168775794906391</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-5.87486967104403e-06</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.01191573148586499</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-1.725412103221454</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0.0008420666602095762</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.004614408187864545</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.00401171911225974</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.0009494272018343449</v>
+      </c>
+      <c r="N199" t="n">
+        <v>-0.0001351237619723955</v>
+      </c>
+      <c r="O199" t="n">
+        <v>-0.0115272757852469</v>
+      </c>
+      <c r="P199" t="n">
+        <v>-0.02717505681654282</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>6223.950737493225</v>
+      </c>
+      <c r="R199" t="n">
+        <v>1.9572</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9951654518805869</v>
+      </c>
+      <c r="B200" t="n">
+        <v>40.16134110680085</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.0007108088146196657</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.2453000753659245</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.821352614322483e-06</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-0.05020949910271547</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-2.534939846219593e-06</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.01213073538221754</v>
+      </c>
+      <c r="I200" t="n">
+        <v>-2.042386295983959</v>
+      </c>
+      <c r="J200" t="n">
+        <v>-0.0006226305296289424</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.004523616049205842</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.0110584967034133</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.001010259609203154</v>
+      </c>
+      <c r="N200" t="n">
+        <v>-9.526444534872662e-05</v>
+      </c>
+      <c r="O200" t="n">
+        <v>-0.01469885937167913</v>
+      </c>
+      <c r="P200" t="n">
+        <v>-0.03213731804722324</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>6159.887442829675</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1.9624</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9948982473941642</v>
+      </c>
+      <c r="B201" t="n">
+        <v>38.29526725136335</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.0009143498061306948</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.238869721130451</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.534267487543261e-06</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-0.06003914515095294</v>
+      </c>
+      <c r="G201" t="n">
+        <v>4.013443025804849e-08</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.01210560004714675</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-2.353027243117633</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-0.0004421144760645411</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0.004418538191872341</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.002502453194605217</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.0009608962420389798</v>
+      </c>
+      <c r="N201" t="n">
+        <v>-3.983430817991903e-05</v>
+      </c>
+      <c r="O201" t="n">
+        <v>-0.01764674175595139</v>
+      </c>
+      <c r="P201" t="n">
+        <v>-0.03776004179322501</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>6087.381792249064</v>
+      </c>
+      <c r="R201" t="n">
+        <v>1.9673</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.9945759499409681</v>
+      </c>
+      <c r="B202" t="n">
+        <v>35.90647973988493</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.001478789761573434</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.2270306881125949</v>
+      </c>
+      <c r="E202" t="n">
+        <v>5.05111878463417e-06</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-0.0726992027930511</v>
+      </c>
+      <c r="G202" t="n">
+        <v>3.720823160190923e-06</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.0124173527667275</v>
+      </c>
+      <c r="I202" t="n">
+        <v>-2.733692400817076</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-0.0001738704156178484</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.003884972202388448</v>
+      </c>
+      <c r="L202" t="n">
+        <v>-0.0008973631933112232</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.0008365721197903451</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1.926255326850321e-05</v>
+      </c>
+      <c r="O202" t="n">
+        <v>-0.02030955829874266</v>
+      </c>
+      <c r="P202" t="n">
+        <v>-0.04234997047459493</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>5998.525297156003</v>
+      </c>
+      <c r="R202" t="n">
+        <v>1.9722</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.9941854820037105</v>
+      </c>
+      <c r="B203" t="n">
+        <v>32.76074303330148</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.001980928070420344</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.2085528986022013</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.956195081847867e-06</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-0.08792681571934559</v>
+      </c>
+      <c r="G203" t="n">
+        <v>7.079935495646474e-06</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.0112373622651622</v>
+      </c>
+      <c r="I203" t="n">
+        <v>-3.096176834017353</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.0001181945197912334</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.003350601771135758</v>
+      </c>
+      <c r="L203" t="n">
+        <v>-0.008535881423518878</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.0006719378855074306</v>
+      </c>
+      <c r="N203" t="n">
+        <v>8.076090561355295e-05</v>
+      </c>
+      <c r="O203" t="n">
+        <v>-0.0226310915751541</v>
+      </c>
+      <c r="P203" t="n">
+        <v>-0.04565059888011468</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>5888.380320052996</v>
+      </c>
+      <c r="R203" t="n">
+        <v>1.9771</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.9937137347950754</v>
+      </c>
+      <c r="B204" t="n">
+        <v>28.52746779483143</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.002037858574215119</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.1819018446965263</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4.807166336670602e-06</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-0.1018458763299039</v>
+      </c>
+      <c r="G204" t="n">
+        <v>8.696216129684604e-06</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.01034521028736966</v>
+      </c>
+      <c r="I204" t="n">
+        <v>-3.255272826033995</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.0003549964396045994</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.002813950276187618</v>
+      </c>
+      <c r="L204" t="n">
+        <v>-0.01169539029002699</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.0004763926080218193</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.0001198967843007402</v>
+      </c>
+      <c r="O204" t="n">
+        <v>-0.02325856893067052</v>
+      </c>
+      <c r="P204" t="n">
+        <v>-0.04483098649164559</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>5752.704044982092</v>
+      </c>
+      <c r="R204" t="n">
+        <v>1.9819</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.9932291129701465</v>
+      </c>
+      <c r="B205" t="n">
+        <v>23.29684266786603</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.002826638413517364</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.1483549959356005</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.080687272344746e-06</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.1115780975543937</v>
+      </c>
+      <c r="G205" t="n">
+        <v>4.828955861656266e-06</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.00780592247788341</v>
+      </c>
+      <c r="I205" t="n">
+        <v>-3.043475659001892</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.0004150972946451526</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.001518123673122168</v>
+      </c>
+      <c r="L205" t="n">
+        <v>-0.02089008010012781</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.0002546155950777309</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.0001234861004817264</v>
+      </c>
+      <c r="O205" t="n">
+        <v>-0.02163541682325362</v>
+      </c>
+      <c r="P205" t="n">
+        <v>-0.03608560362292273</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>5606.856294739454</v>
+      </c>
+      <c r="R205" t="n">
+        <v>1.9865</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.9927435830662845</v>
+      </c>
+      <c r="B206" t="n">
+        <v>16.58254542081296</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.001543565330940274</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1052682023486041</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.391735626539383e-06</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-0.09916195303761174</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-3.779712981588801e-06</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.005380821909740147</v>
+      </c>
+      <c r="I206" t="n">
+        <v>-2.032713418039392</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.0001501495859459155</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.001035910753097543</v>
+      </c>
+      <c r="L206" t="n">
+        <v>-0.01671508603850752</v>
+      </c>
+      <c r="M206" t="n">
+        <v>9.535545587155785e-05</v>
+      </c>
+      <c r="N206" t="n">
+        <v>7.210218366649839e-05</v>
+      </c>
+      <c r="O206" t="n">
+        <v>-0.01425111221226514</v>
+      </c>
+      <c r="P206" t="n">
+        <v>-0.0213523748762302</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>5456.738719266357</v>
+      </c>
+      <c r="R206" t="n">
+        <v>1.991</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.9923734842975207</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8.589633061599296</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.001018959887796143</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.05436232658776298</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.196233442021924e-07</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-0.06029361723056165</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1.157989720423681e-05</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.001455589033119964</v>
+      </c>
+      <c r="I207" t="n">
+        <v>-0.6744097266168175</v>
+      </c>
+      <c r="J207" t="n">
+        <v>-0.0001024806826294072</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0.0003894959701632277</v>
+      </c>
+      <c r="L207" t="n">
+        <v>-0.004396910903293041</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2.389651631938337e-05</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1.346280749629879e-05</v>
+      </c>
+      <c r="O207" t="n">
+        <v>-0.004552111148479384</v>
+      </c>
+      <c r="P207" t="n">
+        <v>-0.006416043635454132</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>5338.538121127932</v>
+      </c>
+      <c r="R207" t="n">
+        <v>1.9955</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.9922398940799459</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.0004003182507031022</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-0.0009833136407498397</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.616543664240175e-06</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-1.963801700881566e-06</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.005757053081900489</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1.020073143652893e-05</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.000330074188382265</v>
+      </c>
+      <c r="I208" t="n">
+        <v>-0.008870088600987463</v>
+      </c>
+      <c r="J208" t="n">
+        <v>3.121092457236183e-05</v>
+      </c>
+      <c r="K208" t="n">
+        <v>5.170237444713628e-05</v>
+      </c>
+      <c r="L208" t="n">
+        <v>-0.001381954856763629</v>
+      </c>
+      <c r="M208" t="n">
+        <v>-7.199012608077809e-06</v>
+      </c>
+      <c r="N208" t="n">
+        <v>-5.23187025723281e-07</v>
+      </c>
+      <c r="O208" t="n">
+        <v>-0.0001438713319873953</v>
+      </c>
+      <c r="P208" t="n">
+        <v>-0.001907850635297715</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>5294.360963305209</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
